--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H2">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I2">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J2">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>1535.773809722024</v>
+        <v>435.7610870994408</v>
       </c>
       <c r="R2">
-        <v>13821.96428749821</v>
+        <v>3921.849783894967</v>
       </c>
       <c r="S2">
-        <v>0.0006870304608968914</v>
+        <v>0.0003498817795777415</v>
       </c>
       <c r="T2">
-        <v>0.0006870304608968915</v>
+        <v>0.0003498817795777414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H3">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I3">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J3">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>751.8877266003279</v>
+        <v>2075.408477377116</v>
       </c>
       <c r="R3">
-        <v>6766.989539402951</v>
+        <v>18678.67629639404</v>
       </c>
       <c r="S3">
-        <v>0.0003363579767273402</v>
+        <v>0.001666389296595749</v>
       </c>
       <c r="T3">
-        <v>0.0003363579767273403</v>
+        <v>0.001666389296595749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H4">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I4">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J4">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>370.613792983968</v>
+        <v>987.3881386697622</v>
       </c>
       <c r="R4">
-        <v>3335.524136855712</v>
+        <v>8886.493248027858</v>
       </c>
       <c r="S4">
-        <v>0.0001657945743029747</v>
+        <v>0.0007927947889777824</v>
       </c>
       <c r="T4">
-        <v>0.0001657945743029747</v>
+        <v>0.0007927947889777823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H5">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I5">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J5">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>1099.45175257608</v>
+        <v>2270.234003576942</v>
       </c>
       <c r="R5">
-        <v>9895.065773184717</v>
+        <v>20432.10603219247</v>
       </c>
       <c r="S5">
-        <v>0.0004918412070348818</v>
+        <v>0.001822818826060388</v>
       </c>
       <c r="T5">
-        <v>0.0004918412070348819</v>
+        <v>0.001822818826060388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J6">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>856074.5748390186</v>
+        <v>87999.90367911836</v>
       </c>
       <c r="R6">
-        <v>7704671.173551167</v>
+        <v>791999.1331120653</v>
       </c>
       <c r="S6">
-        <v>0.3829661021633236</v>
+        <v>0.07065698111518982</v>
       </c>
       <c r="T6">
-        <v>0.3829661021633236</v>
+        <v>0.07065698111518981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J7">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
-        <v>419118.9886175732</v>
+        <v>419118.9886175733</v>
       </c>
       <c r="R7">
-        <v>3772070.897558159</v>
+        <v>3772070.89755816</v>
       </c>
       <c r="S7">
-        <v>0.1874934382249226</v>
+        <v>0.3365194872457163</v>
       </c>
       <c r="T7">
-        <v>0.1874934382249226</v>
+        <v>0.3365194872457162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J8">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>206588.3942347298</v>
+        <v>199398.3943706628</v>
       </c>
       <c r="R8">
-        <v>1859295.548112568</v>
+        <v>1794585.549335965</v>
       </c>
       <c r="S8">
-        <v>0.09241759353398861</v>
+        <v>0.1601011818924328</v>
       </c>
       <c r="T8">
-        <v>0.09241759353398861</v>
+        <v>0.1601011818924328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J9">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>612858.9286289115</v>
+        <v>458463.0880504486</v>
       </c>
       <c r="R9">
-        <v>5515730.357660203</v>
+        <v>4126167.792454037</v>
       </c>
       <c r="S9">
-        <v>0.2741632586356627</v>
+        <v>0.3681096955800292</v>
       </c>
       <c r="T9">
-        <v>0.2741632586356627</v>
+        <v>0.3681096955800292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H10">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I10">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J10">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>55764.80592568858</v>
+        <v>5584.229507438117</v>
       </c>
       <c r="R10">
-        <v>501883.2533311971</v>
+        <v>50258.06556694306</v>
       </c>
       <c r="S10">
-        <v>0.02494646026284694</v>
+        <v>0.004483695803675837</v>
       </c>
       <c r="T10">
-        <v>0.02494646026284694</v>
+        <v>0.004483695803675835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H11">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I11">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J11">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>27301.46385252111</v>
+        <v>26596.1271037305</v>
       </c>
       <c r="R11">
-        <v>245713.17467269</v>
+        <v>239365.1439335745</v>
       </c>
       <c r="S11">
-        <v>0.01221334624605457</v>
+        <v>0.02135459212952972</v>
       </c>
       <c r="T11">
-        <v>0.01221334624605457</v>
+        <v>0.02135459212952971</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H12">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I12">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J12">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>13457.19409219192</v>
+        <v>12653.26836766367</v>
       </c>
       <c r="R12">
-        <v>121114.7468297273</v>
+        <v>113879.415308973</v>
       </c>
       <c r="S12">
-        <v>0.006020093714979409</v>
+        <v>0.01015957639407722</v>
       </c>
       <c r="T12">
-        <v>0.00602009371497941</v>
+        <v>0.01015957639407722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H13">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I13">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J13">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>39921.70801386471</v>
+        <v>29092.79439325136</v>
       </c>
       <c r="R13">
-        <v>359295.3721247824</v>
+        <v>261835.1495392623</v>
       </c>
       <c r="S13">
-        <v>0.01785902929385218</v>
+        <v>0.02335921902287082</v>
       </c>
       <c r="T13">
-        <v>0.01785902929385219</v>
+        <v>0.02335921902287082</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H14">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>218.9462114914731</v>
+        <v>58.67549865191666</v>
       </c>
       <c r="R14">
-        <v>1970.515903423258</v>
+        <v>528.07948786725</v>
       </c>
       <c r="S14">
-        <v>9.794587955620994E-05</v>
+        <v>4.711179702298463E-05</v>
       </c>
       <c r="T14">
-        <v>9.794587955620994E-05</v>
+        <v>4.711179702298461E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H15">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>107.1921972910029</v>
+        <v>279.4550291929305</v>
       </c>
       <c r="R15">
-        <v>964.7297756190259</v>
+        <v>2515.095262736375</v>
       </c>
       <c r="S15">
-        <v>4.795257234053098E-05</v>
+        <v>0.0002243803446902538</v>
       </c>
       <c r="T15">
-        <v>4.795257234053099E-05</v>
+        <v>0.0002243803446902538</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H16">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>52.83622196618399</v>
+        <v>132.9524207520972</v>
       </c>
       <c r="R16">
-        <v>475.525997695656</v>
+        <v>1196.571786768875</v>
       </c>
       <c r="S16">
-        <v>2.363635432489124E-05</v>
+        <v>0.0001067503064157197</v>
       </c>
       <c r="T16">
-        <v>2.363635432489124E-05</v>
+        <v>0.0001067503064157197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H17">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>156.7423499608733</v>
+        <v>305.6884062390278</v>
       </c>
       <c r="R17">
-        <v>1410.68114964786</v>
+        <v>2751.19565615125</v>
       </c>
       <c r="S17">
-        <v>7.011889918553306E-05</v>
+        <v>0.0002454436771376686</v>
       </c>
       <c r="T17">
-        <v>7.011889918553307E-05</v>
+        <v>0.0002454436771376685</v>
       </c>
     </row>
   </sheetData>
